--- a/train_booking_data_.xlsx
+++ b/train_booking_data_.xlsx
@@ -389,10 +389,13 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="J8" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="8.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -434,10 +437,10 @@
         <v>12</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
@@ -460,10 +463,10 @@
         <v>32</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
@@ -486,10 +489,10 @@
         <v>88</v>
       </c>
       <c r="E4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
@@ -512,10 +515,10 @@
         <v>92</v>
       </c>
       <c r="E5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" t="s">
         <v>11</v>
@@ -538,10 +541,10 @@
         <v>41</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G6" t="s">
         <v>11</v>
@@ -564,10 +567,10 @@
         <v>72</v>
       </c>
       <c r="E7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G7" t="s">
         <v>9</v>
@@ -590,10 +593,10 @@
         <v>94</v>
       </c>
       <c r="E8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8" t="s">
         <v>13</v>
@@ -616,10 +619,10 @@
         <v>45</v>
       </c>
       <c r="E9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
@@ -642,10 +645,10 @@
         <v>19</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="s">
         <v>9</v>
@@ -668,10 +671,10 @@
         <v>34</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G11" t="s">
         <v>13</v>
@@ -694,10 +697,10 @@
         <v>16</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G12" t="s">
         <v>13</v>
@@ -720,10 +723,10 @@
         <v>79</v>
       </c>
       <c r="E13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="s">
         <v>9</v>
@@ -746,10 +749,10 @@
         <v>64</v>
       </c>
       <c r="E14">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G14" t="s">
         <v>13</v>
@@ -772,10 +775,10 @@
         <v>98</v>
       </c>
       <c r="E15">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" t="s">
         <v>11</v>
@@ -798,10 +801,10 @@
         <v>52</v>
       </c>
       <c r="E16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G16" t="s">
         <v>13</v>
@@ -824,10 +827,10 @@
         <v>81</v>
       </c>
       <c r="E17">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G17" t="s">
         <v>13</v>
@@ -850,10 +853,10 @@
         <v>53</v>
       </c>
       <c r="E18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G18" t="s">
         <v>11</v>
@@ -876,10 +879,10 @@
         <v>73</v>
       </c>
       <c r="E19">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="s">
         <v>9</v>
@@ -902,10 +905,10 @@
         <v>97</v>
       </c>
       <c r="E20">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="s">
         <v>9</v>
@@ -928,10 +931,10 @@
         <v>49</v>
       </c>
       <c r="E21">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21" t="s">
         <v>11</v>
@@ -954,10 +957,10 @@
         <v>67</v>
       </c>
       <c r="E22">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="s">
         <v>9</v>
@@ -980,10 +983,10 @@
         <v>8</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G23" t="s">
         <v>11</v>
@@ -1006,10 +1009,10 @@
         <v>68</v>
       </c>
       <c r="E24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G24" t="s">
         <v>11</v>
@@ -1032,10 +1035,10 @@
         <v>6</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G25" t="s">
         <v>9</v>
